--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.7514372084309</v>
+        <v>2.181445333333333</v>
       </c>
       <c r="H2">
-        <v>1.7514372084309</v>
+        <v>6.544335999999999</v>
       </c>
       <c r="I2">
-        <v>0.0931208769924092</v>
+        <v>0.1058843243701343</v>
       </c>
       <c r="J2">
-        <v>0.0931208769924092</v>
+        <v>0.1058843243701343</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N2">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O2">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P2">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q2">
-        <v>202.4702472493947</v>
+        <v>257.5131041684924</v>
       </c>
       <c r="R2">
-        <v>202.4702472493947</v>
+        <v>2317.617937516432</v>
       </c>
       <c r="S2">
-        <v>0.04456777796332865</v>
+        <v>0.04931261961153638</v>
       </c>
       <c r="T2">
-        <v>0.04456777796332865</v>
+        <v>0.04931261961153639</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.7514372084309</v>
+        <v>2.181445333333333</v>
       </c>
       <c r="H3">
-        <v>1.7514372084309</v>
+        <v>6.544335999999999</v>
       </c>
       <c r="I3">
-        <v>0.0931208769924092</v>
+        <v>0.1058843243701343</v>
       </c>
       <c r="J3">
-        <v>0.0931208769924092</v>
+        <v>0.1058843243701343</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P3">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q3">
-        <v>103.9561079122298</v>
+        <v>129.5033898906951</v>
       </c>
       <c r="R3">
-        <v>103.9561079122298</v>
+        <v>1165.530509016256</v>
       </c>
       <c r="S3">
-        <v>0.0228828324077524</v>
+        <v>0.02479932593995618</v>
       </c>
       <c r="T3">
-        <v>0.0228828324077524</v>
+        <v>0.02479932593995619</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.7514372084309</v>
+        <v>2.181445333333333</v>
       </c>
       <c r="H4">
-        <v>1.7514372084309</v>
+        <v>6.544335999999999</v>
       </c>
       <c r="I4">
-        <v>0.0931208769924092</v>
+        <v>0.1058843243701343</v>
       </c>
       <c r="J4">
-        <v>0.0931208769924092</v>
+        <v>0.1058843243701343</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N4">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O4">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P4">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q4">
-        <v>92.2140882807511</v>
+        <v>124.0044003129831</v>
       </c>
       <c r="R4">
-        <v>92.2140882807511</v>
+        <v>1116.039602816848</v>
       </c>
       <c r="S4">
-        <v>0.02029817747258956</v>
+        <v>0.02374629377614022</v>
       </c>
       <c r="T4">
-        <v>0.02029817747258956</v>
+        <v>0.02374629377614022</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.7514372084309</v>
+        <v>2.181445333333333</v>
       </c>
       <c r="H5">
-        <v>1.7514372084309</v>
+        <v>6.544335999999999</v>
       </c>
       <c r="I5">
-        <v>0.0931208769924092</v>
+        <v>0.1058843243701343</v>
       </c>
       <c r="J5">
-        <v>0.0931208769924092</v>
+        <v>0.1058843243701343</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N5">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O5">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P5">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q5">
-        <v>24.40526021032207</v>
+        <v>41.91264000769777</v>
       </c>
       <c r="R5">
-        <v>24.40526021032207</v>
+        <v>377.21376006928</v>
       </c>
       <c r="S5">
-        <v>0.005372089148738594</v>
+        <v>0.008026085042501477</v>
       </c>
       <c r="T5">
-        <v>0.005372089148738594</v>
+        <v>0.008026085042501479</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.677319784632131</v>
+        <v>8.793934999999999</v>
       </c>
       <c r="H6">
-        <v>8.677319784632131</v>
+        <v>26.381805</v>
       </c>
       <c r="I6">
-        <v>0.4613580346465542</v>
+        <v>0.426845381730038</v>
       </c>
       <c r="J6">
-        <v>0.4613580346465542</v>
+        <v>0.426845381730038</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N6">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O6">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P6">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q6">
-        <v>1003.11850964416</v>
+        <v>1038.097753403531</v>
       </c>
       <c r="R6">
-        <v>1003.11850964416</v>
+        <v>9342.879780631785</v>
       </c>
       <c r="S6">
-        <v>0.2208065807992918</v>
+        <v>0.1987911248185803</v>
       </c>
       <c r="T6">
-        <v>0.2208065807992918</v>
+        <v>0.1987911248185803</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.677319784632131</v>
+        <v>8.793934999999999</v>
       </c>
       <c r="H7">
-        <v>8.677319784632131</v>
+        <v>26.381805</v>
       </c>
       <c r="I7">
-        <v>0.4613580346465542</v>
+        <v>0.426845381730038</v>
       </c>
       <c r="J7">
-        <v>0.4613580346465542</v>
+        <v>0.426845381730038</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P7">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q7">
-        <v>515.0400982563879</v>
+        <v>522.0595609600865</v>
       </c>
       <c r="R7">
-        <v>515.0400982563879</v>
+        <v>4698.53604864078</v>
       </c>
       <c r="S7">
-        <v>0.1133706954633567</v>
+        <v>0.09997209511849112</v>
       </c>
       <c r="T7">
-        <v>0.1133706954633567</v>
+        <v>0.09997209511849114</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.677319784632131</v>
+        <v>8.793934999999999</v>
       </c>
       <c r="H8">
-        <v>8.677319784632131</v>
+        <v>26.381805</v>
       </c>
       <c r="I8">
-        <v>0.4613580346465542</v>
+        <v>0.426845381730038</v>
       </c>
       <c r="J8">
-        <v>0.4613580346465542</v>
+        <v>0.426845381730038</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N8">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O8">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P8">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q8">
-        <v>456.8654410267114</v>
+        <v>499.8918008181516</v>
       </c>
       <c r="R8">
-        <v>456.8654410267114</v>
+        <v>4499.026207363365</v>
       </c>
       <c r="S8">
-        <v>0.1005652821163213</v>
+        <v>0.09572706717302487</v>
       </c>
       <c r="T8">
-        <v>0.1005652821163213</v>
+        <v>0.09572706717302489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.677319784632131</v>
+        <v>8.793934999999999</v>
       </c>
       <c r="H9">
-        <v>8.677319784632131</v>
+        <v>26.381805</v>
       </c>
       <c r="I9">
-        <v>0.4613580346465542</v>
+        <v>0.426845381730038</v>
       </c>
       <c r="J9">
-        <v>0.4613580346465542</v>
+        <v>0.426845381730038</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N9">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O9">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P9">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q9">
-        <v>120.9134111418406</v>
+        <v>168.9600130125167</v>
       </c>
       <c r="R9">
-        <v>120.9134111418406</v>
+        <v>1520.64011711265</v>
       </c>
       <c r="S9">
-        <v>0.02661547626758445</v>
+        <v>0.03235509461994168</v>
       </c>
       <c r="T9">
-        <v>0.02661547626758445</v>
+        <v>0.03235509461994169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.38278613903357</v>
+        <v>6.198723333333334</v>
       </c>
       <c r="H10">
-        <v>5.38278613903357</v>
+        <v>18.59617</v>
       </c>
       <c r="I10">
-        <v>0.286193397922873</v>
+        <v>0.3008774146563012</v>
       </c>
       <c r="J10">
-        <v>0.286193397922873</v>
+        <v>0.3008774146563012</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N10">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O10">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P10">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q10">
-        <v>622.2626967238716</v>
+        <v>731.7407697809211</v>
       </c>
       <c r="R10">
-        <v>622.2626967238716</v>
+        <v>6585.66692802829</v>
       </c>
       <c r="S10">
-        <v>0.1369725482099669</v>
+        <v>0.1401251184904725</v>
       </c>
       <c r="T10">
-        <v>0.1369725482099669</v>
+        <v>0.1401251184904725</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.38278613903357</v>
+        <v>6.198723333333334</v>
       </c>
       <c r="H11">
-        <v>5.38278613903357</v>
+        <v>18.59617</v>
       </c>
       <c r="I11">
-        <v>0.286193397922873</v>
+        <v>0.3008774146563012</v>
       </c>
       <c r="J11">
-        <v>0.286193397922873</v>
+        <v>0.3008774146563012</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N11">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O11">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P11">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q11">
-        <v>319.4938956670599</v>
+        <v>367.9925746452577</v>
       </c>
       <c r="R11">
-        <v>319.4938956670599</v>
+        <v>3311.93317180732</v>
       </c>
       <c r="S11">
-        <v>0.07032703913868996</v>
+        <v>0.070468949189778</v>
       </c>
       <c r="T11">
-        <v>0.07032703913868996</v>
+        <v>0.07046894918977802</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.38278613903357</v>
+        <v>6.198723333333334</v>
       </c>
       <c r="H12">
-        <v>5.38278613903357</v>
+        <v>18.59617</v>
       </c>
       <c r="I12">
-        <v>0.286193397922873</v>
+        <v>0.3008774146563012</v>
       </c>
       <c r="J12">
-        <v>0.286193397922873</v>
+        <v>0.3008774146563012</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N12">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O12">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P12">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q12">
-        <v>283.4065154216623</v>
+        <v>352.3668266678678</v>
       </c>
       <c r="R12">
-        <v>283.4065154216623</v>
+        <v>3171.30144001081</v>
       </c>
       <c r="S12">
-        <v>0.06238348016197764</v>
+        <v>0.06747668761674912</v>
       </c>
       <c r="T12">
-        <v>0.06238348016197764</v>
+        <v>0.06747668761674913</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.38278613903357</v>
+        <v>6.198723333333334</v>
       </c>
       <c r="H13">
-        <v>5.38278613903357</v>
+        <v>18.59617</v>
       </c>
       <c r="I13">
-        <v>0.286193397922873</v>
+        <v>0.3008774146563012</v>
       </c>
       <c r="J13">
-        <v>0.286193397922873</v>
+        <v>0.3008774146563012</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N13">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O13">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P13">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q13">
-        <v>75.00599835795487</v>
+        <v>119.0975797593445</v>
       </c>
       <c r="R13">
-        <v>75.00599835795487</v>
+        <v>1071.8782178341</v>
       </c>
       <c r="S13">
-        <v>0.01651033041223848</v>
+        <v>0.02280665935930165</v>
       </c>
       <c r="T13">
-        <v>0.01651033041223848</v>
+        <v>0.02280665935930165</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.99666900033069</v>
+        <v>3.428052000000001</v>
       </c>
       <c r="H14">
-        <v>2.99666900033069</v>
+        <v>10.284156</v>
       </c>
       <c r="I14">
-        <v>0.1593276904381637</v>
+        <v>0.1663928792435264</v>
       </c>
       <c r="J14">
-        <v>0.1593276904381637</v>
+        <v>0.1663928792435264</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N14">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O14">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P14">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q14">
-        <v>346.4219616329391</v>
+        <v>404.671296723308</v>
       </c>
       <c r="R14">
-        <v>346.4219616329391</v>
+        <v>3642.041670509772</v>
       </c>
       <c r="S14">
-        <v>0.07625444862849469</v>
+        <v>0.07749276211577456</v>
       </c>
       <c r="T14">
-        <v>0.07625444862849469</v>
+        <v>0.07749276211577458</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.99666900033069</v>
+        <v>3.428052000000001</v>
       </c>
       <c r="H15">
-        <v>2.99666900033069</v>
+        <v>10.284156</v>
       </c>
       <c r="I15">
-        <v>0.1593276904381637</v>
+        <v>0.1663928792435264</v>
       </c>
       <c r="J15">
-        <v>0.1593276904381637</v>
+        <v>0.1663928792435264</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N15">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O15">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P15">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q15">
-        <v>177.8665226912139</v>
+        <v>203.509273387664</v>
       </c>
       <c r="R15">
-        <v>177.8665226912139</v>
+        <v>1831.583460488976</v>
       </c>
       <c r="S15">
-        <v>0.03915200281573754</v>
+        <v>0.03897112505552222</v>
       </c>
       <c r="T15">
-        <v>0.03915200281573754</v>
+        <v>0.03897112505552223</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.99666900033069</v>
+        <v>3.428052000000001</v>
       </c>
       <c r="H16">
-        <v>2.99666900033069</v>
+        <v>10.284156</v>
       </c>
       <c r="I16">
-        <v>0.1593276904381637</v>
+        <v>0.1663928792435264</v>
       </c>
       <c r="J16">
-        <v>0.1593276904381637</v>
+        <v>0.1663928792435264</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N16">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O16">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P16">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q16">
-        <v>157.7761956948779</v>
+        <v>194.867836478012</v>
       </c>
       <c r="R16">
-        <v>157.7761956948779</v>
+        <v>1753.810528302108</v>
       </c>
       <c r="S16">
-        <v>0.0347297173444284</v>
+        <v>0.03731632813713341</v>
       </c>
       <c r="T16">
-        <v>0.0347297173444284</v>
+        <v>0.03731632813713342</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.99666900033069</v>
+        <v>3.428052000000001</v>
       </c>
       <c r="H17">
-        <v>2.99666900033069</v>
+        <v>10.284156</v>
       </c>
       <c r="I17">
-        <v>0.1593276904381637</v>
+        <v>0.1663928792435264</v>
       </c>
       <c r="J17">
-        <v>0.1593276904381637</v>
+        <v>0.1663928792435264</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N17">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O17">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P17">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q17">
-        <v>41.7568419611211</v>
+        <v>65.86399723532001</v>
       </c>
       <c r="R17">
-        <v>41.7568419611211</v>
+        <v>592.7759751178801</v>
       </c>
       <c r="S17">
-        <v>0.009191521649503065</v>
+        <v>0.01261266393509622</v>
       </c>
       <c r="T17">
-        <v>0.009191521649503065</v>
+        <v>0.01261266393509622</v>
       </c>
     </row>
   </sheetData>
